--- a/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5457D4-03EB-471E-B1ED-764CAD92A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2A842-FFD0-4B5B-A96F-70457C1FBD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2205" windowWidth="23310" windowHeight="12705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1995" windowWidth="23310" windowHeight="12705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="147">
   <si>
     <t>desc</t>
   </si>
@@ -747,9 +747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -787,7 +787,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -893,7 +893,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1035,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,9 +1049,9 @@
   <dimension ref="A1:AL164"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20435,7 +20435,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20572,8 +20572,8 @@
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2+2000</f>
-        <v>2000</v>
+        <f>ROW()-2+20000</f>
+        <v>20000</v>
       </c>
       <c r="B2" s="6">
         <v>20000</v>
@@ -20689,8 +20689,8 @@
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" si="0"/>
-        <v>2001</v>
+        <f>ROW()-2+20000</f>
+        <v>20001</v>
       </c>
       <c r="B3" s="3">
         <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
@@ -20807,8 +20807,8 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" si="0"/>
-        <v>2002</v>
+        <f t="shared" ref="A4:A10" si="0">ROW()-2+20000</f>
+        <v>20002</v>
       </c>
       <c r="B4" s="3">
         <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
@@ -20926,7 +20926,7 @@
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>20003</v>
       </c>
       <c r="B5" s="3">
         <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
@@ -21044,7 +21044,7 @@
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
-        <v>2004</v>
+        <v>20004</v>
       </c>
       <c r="B6" s="3">
         <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
@@ -21162,7 +21162,7 @@
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>2005</v>
+        <v>20005</v>
       </c>
       <c r="B7" s="3">
         <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
@@ -21278,124 +21278,358 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="5"/>
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>20006</v>
+      </c>
+      <c r="B8" s="3">
+        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <v>20006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>70</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="5"/>
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>20007</v>
+      </c>
+      <c r="B9" s="3">
+        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <v>20007</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>90</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="5"/>
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>20008</v>
+      </c>
+      <c r="B10" s="3">
+        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <v>20008</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>

--- a/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784491A-4295-4A56-8D73-E9C662F9CED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D8C19E-17A7-4CE0-869B-F8DC6690CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1965" windowWidth="23310" windowHeight="12705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2160" windowWidth="23310" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="155">
   <si>
     <t>desc</t>
   </si>
@@ -674,15 +674,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Sp_Score1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>chocolate_green</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>search_endflag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sp1_Wind</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chocolate_green_twister_lv1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1088,10 +1092,10 @@
   </sheetPr>
   <dimension ref="A1:AN164"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AN165" sqref="AN165"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1169,7 @@
         <v>84</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -1231,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21455,12 +21459,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AN3" sqref="AN3"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21533,7 +21537,7 @@
         <v>84</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -21599,7 +21603,7 @@
         <v>35</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21611,13 +21615,13 @@
         <v>20000</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -21626,19 +21630,19 @@
         <v>80</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
       </c>
       <c r="L2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="6">
         <v>0</v>
@@ -21656,25 +21660,25 @@
         <v>70</v>
       </c>
       <c r="R2" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>7</v>
@@ -21689,19 +21693,19 @@
         <v>20</v>
       </c>
       <c r="AC2" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="7">
         <v>0</v>
@@ -21731,7 +21735,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <f t="shared" ref="B3:B19" si="0">INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20001</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -21741,7 +21745,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -21750,19 +21754,19 @@
         <v>80</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -21780,31 +21784,31 @@
         <v>90</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>7</v>
@@ -21813,25 +21817,25 @@
         <v>20</v>
       </c>
       <c r="AC3" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="5">
         <v>0</v>
@@ -21851,11 +21855,11 @@
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A10" si="0">ROW()-2+20000</f>
+        <f t="shared" ref="A4:A10" si="1">ROW()-2+20000</f>
         <v>20002</v>
       </c>
       <c r="B4" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <f t="shared" si="0"/>
         <v>20002</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -21865,7 +21869,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -21874,19 +21878,19 @@
         <v>80</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -21904,13 +21908,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>7</v>
@@ -21934,25 +21938,25 @@
         <v>7</v>
       </c>
       <c r="AB4" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="5">
         <v>0</v>
@@ -21975,15 +21979,15 @@
     </row>
     <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <f t="shared" si="1"/>
+        <v>20003</v>
+      </c>
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>20003</v>
       </c>
-      <c r="B5" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
-        <v>20003</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -22099,11 +22103,11 @@
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
+        <f t="shared" si="1"/>
+        <v>20004</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>20004</v>
-      </c>
-      <c r="B6" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20004</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -22223,11 +22227,11 @@
     </row>
     <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <f t="shared" si="1"/>
+        <v>20005</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>20005</v>
-      </c>
-      <c r="B7" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20005</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -22347,11 +22351,11 @@
     </row>
     <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
+        <f t="shared" si="1"/>
+        <v>20006</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>20006</v>
-      </c>
-      <c r="B8" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20006</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -22471,11 +22475,11 @@
     </row>
     <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>20007</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>20007</v>
-      </c>
-      <c r="B9" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20007</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -22595,13 +22599,13 @@
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>20008</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>20008</v>
       </c>
-      <c r="B10" s="3">
-        <f>INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
-        <v>20008</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -22717,47 +22721,2235 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <f>ROW()-2+20000</f>
+        <v>20009</v>
+      </c>
+      <c r="B11" s="6">
+        <v>21000</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>80</v>
+      </c>
+      <c r="H11" s="6">
+        <v>200</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>100</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>70</v>
+      </c>
+      <c r="R11" s="6">
+        <v>30</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f>ROW()-2+20000</f>
+        <v>20010</v>
+      </c>
+      <c r="B12" s="3">
+        <f>INDEX(B:B,MATCH(21000,B:B,0),1)+(ROW()-MATCH(21000,B:B,0))</f>
+        <v>21001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>90</v>
+      </c>
+      <c r="R12" s="3">
+        <v>30</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" ref="A13:A19" si="2">ROW()-2+20000</f>
+        <v>20011</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B19" si="3">INDEX(B:B,MATCH(21000,B:B,0),1)+(ROW()-MATCH(21000,B:B,0))</f>
+        <v>21002</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>100</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="2"/>
+        <v>20012</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="3"/>
+        <v>21003</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>70</v>
+      </c>
+      <c r="R14" s="3">
+        <v>30</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="2"/>
+        <v>20013</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="3"/>
+        <v>21004</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>90</v>
+      </c>
+      <c r="R15" s="3">
+        <v>30</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="2"/>
+        <v>20014</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="3"/>
+        <v>21005</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>80</v>
+      </c>
+      <c r="H16" s="3">
+        <v>200</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>100</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>30</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" si="2"/>
+        <v>20015</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="3"/>
+        <v>21006</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>80</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>70</v>
+      </c>
+      <c r="R17" s="3">
+        <v>30</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" si="2"/>
+        <v>20016</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="3"/>
+        <v>21007</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>90</v>
+      </c>
+      <c r="R18" s="3">
+        <v>30</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" si="2"/>
+        <v>20017</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="3"/>
+        <v>21008</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3">
+        <v>200</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>100</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>30</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <f>ROW()-2+20000</f>
+        <v>20018</v>
+      </c>
+      <c r="B20" s="6">
+        <v>22000</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>80</v>
+      </c>
+      <c r="H20" s="6">
+        <v>200</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>100</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>70</v>
+      </c>
+      <c r="R20" s="6">
+        <v>30</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f>ROW()-2+20000</f>
+        <v>20019</v>
+      </c>
+      <c r="B21" s="3">
+        <f>INDEX(B:B,MATCH(22000,B:B,0),1)+(ROW()-MATCH(22000,B:B,0))</f>
+        <v>22001</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>90</v>
+      </c>
+      <c r="R21" s="3">
+        <v>30</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:A28" si="4">ROW()-2+20000</f>
+        <v>20020</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:B28" si="5">INDEX(B:B,MATCH(22000,B:B,0),1)+(ROW()-MATCH(22000,B:B,0))</f>
+        <v>22002</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>30</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <f t="shared" si="4"/>
+        <v>20021</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="5"/>
+        <v>22003</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>70</v>
+      </c>
+      <c r="R23" s="3">
+        <v>30</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f t="shared" si="4"/>
+        <v>20022</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="5"/>
+        <v>22004</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>90</v>
+      </c>
+      <c r="R24" s="3">
+        <v>30</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" si="4"/>
+        <v>20023</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="5"/>
+        <v>22005</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>80</v>
+      </c>
+      <c r="H25" s="3">
+        <v>200</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>100</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>30</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <f t="shared" si="4"/>
+        <v>20024</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="5"/>
+        <v>22006</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>70</v>
+      </c>
+      <c r="R26" s="3">
+        <v>30</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="4"/>
+        <v>20025</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="5"/>
+        <v>22007</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>80</v>
+      </c>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>90</v>
+      </c>
+      <c r="R27" s="3">
+        <v>30</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" si="4"/>
+        <v>20026</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="5"/>
+        <v>22008</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>80</v>
+      </c>
+      <c r="H28" s="3">
+        <v>200</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>100</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>30</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D8C19E-17A7-4CE0-869B-F8DC6690CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90045B-2299-465A-8E0E-E4948F4D3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2160" windowWidth="23310" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="1500" windowWidth="23310" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
-    <sheet name="02_Contest" sheetId="3" r:id="rId2"/>
+    <sheet name="02_Contest_D01" sheetId="3" r:id="rId2"/>
+    <sheet name="02_Contest_D100" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="155">
   <si>
     <t>desc</t>
   </si>
@@ -762,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -773,6 +774,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -21461,7 +21463,7 @@
   </sheetPr>
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
@@ -21735,7 +21737,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B19" si="0">INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
+        <f t="shared" ref="B3:B10" si="0">INDEX(B:B,MATCH(20000,B:B,0),1)+(ROW()-MATCH(20000,B:B,0))</f>
         <v>20001</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -24948,6 +24950,1280 @@
         <v>0</v>
       </c>
       <c r="AN28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECD85E6-E226-4493-81AA-9974F6103504}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AN10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="23" width="9" customWidth="1"/>
+    <col min="24" max="27" width="9.28515625" customWidth="1"/>
+    <col min="28" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <f>ROW()-2+100000</f>
+        <v>100000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>80</v>
+      </c>
+      <c r="H2" s="6">
+        <v>200</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>100</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>70</v>
+      </c>
+      <c r="R2" s="6">
+        <v>30</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A10" si="0">ROW()-2+100000</f>
+        <v>100001</v>
+      </c>
+      <c r="B3" s="3">
+        <f>INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
+        <v>100001</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>90</v>
+      </c>
+      <c r="R3" s="3">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>100002</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B10" si="1">INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
+        <v>100002</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>100003</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>100003</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>200</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>70</v>
+      </c>
+      <c r="R5" s="3">
+        <v>30</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>100004</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>100004</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>90</v>
+      </c>
+      <c r="R6" s="3">
+        <v>30</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>100005</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>100005</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>100006</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>100006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>70</v>
+      </c>
+      <c r="R8" s="3">
+        <v>30</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>100007</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>100007</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>90</v>
+      </c>
+      <c r="R9" s="3">
+        <v>30</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>100008</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>100008</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>30</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90045B-2299-465A-8E0E-E4948F4D3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB0C96-4480-4E05-8427-1E41DE1ED8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1500" windowWidth="23310" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1485" windowWidth="24465" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,6 +775,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1095,9 +1098,9 @@
   <dimension ref="A1:AN164"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24970,7 +24973,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25121,7 +25124,7 @@
         <v>100000</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -25236,7 +25239,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2+100000</f>
         <v>100001</v>
       </c>
@@ -25360,7 +25363,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>100002</v>
       </c>
@@ -25483,132 +25486,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>100003</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <f t="shared" si="1"/>
         <v>100003</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>80</v>
       </c>
-      <c r="H5" s="3">
-        <v>200</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>100</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>110</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>70</v>
       </c>
-      <c r="R5" s="3">
-        <v>30</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="5">
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="11">
         <v>20</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="5">
+      <c r="AC5" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>100004</v>
       </c>
@@ -25623,7 +25626,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -25632,19 +25635,19 @@
         <v>80</v>
       </c>
       <c r="H6" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -25662,31 +25665,31 @@
         <v>90</v>
       </c>
       <c r="R6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>7</v>
@@ -25695,25 +25698,25 @@
         <v>20</v>
       </c>
       <c r="AC6" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD6" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE6" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG6" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH6" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI6" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ6" s="5">
         <v>0</v>
@@ -25722,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AM6" s="5">
         <v>0</v>
@@ -25732,7 +25735,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>100005</v>
       </c>
@@ -25747,7 +25750,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -25756,85 +25759,85 @@
         <v>80</v>
       </c>
       <c r="H7" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="5">
         <v>100</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>30</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="AC7" s="5">
         <v>70</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="5">
+      <c r="AD7" s="5">
         <v>20</v>
       </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
       <c r="AE7" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF7" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI7" s="5">
         <v>0</v>
@@ -25846,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AM7" s="5">
         <v>0</v>
@@ -25856,7 +25859,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>100006</v>
       </c>
@@ -25980,7 +25983,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>100007</v>
       </c>
@@ -26104,7 +26107,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>100008</v>
       </c>
